--- a/1 Unity Shader Feng/进度表.xlsx
+++ b/1 Unity Shader Feng/进度表.xlsx
@@ -454,7 +454,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -512,7 +512,7 @@
       <c r="B4" s="1">
         <v>15</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="1"/>
@@ -524,7 +524,7 @@
       <c r="B5" s="1">
         <v>61</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="1"/>
@@ -536,7 +536,7 @@
       <c r="B6" s="1">
         <v>21</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6" s="1"/>
@@ -548,7 +548,7 @@
       <c r="B7" s="1">
         <v>18</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>1</v>
       </c>
       <c r="D7" s="1"/>
@@ -560,7 +560,7 @@
       <c r="B8" s="1">
         <v>23</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>1</v>
       </c>
       <c r="D8" s="1"/>
@@ -572,7 +572,7 @@
       <c r="B9" s="1">
         <v>18</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>1</v>
       </c>
       <c r="D9" s="1"/>
@@ -584,7 +584,7 @@
       <c r="B10" s="1">
         <v>30</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>1</v>
       </c>
       <c r="D10" s="1"/>
@@ -596,7 +596,7 @@
       <c r="B11" s="1">
         <v>20</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>1</v>
       </c>
       <c r="D11" s="1"/>
@@ -608,7 +608,7 @@
       <c r="B12" s="1">
         <v>14</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>1</v>
       </c>
       <c r="D12" s="1"/>
@@ -620,7 +620,7 @@
       <c r="B13" s="1">
         <v>23</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>1</v>
       </c>
       <c r="D13" s="1"/>

--- a/1 Unity Shader Feng/进度表.xlsx
+++ b/1 Unity Shader Feng/进度表.xlsx
@@ -454,7 +454,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A19" sqref="A19:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -632,7 +632,7 @@
       <c r="B14" s="1">
         <v>21</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <v>1</v>
       </c>
       <c r="D14" s="1"/>
@@ -644,7 +644,7 @@
       <c r="B15" s="1">
         <v>10</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <v>1</v>
       </c>
       <c r="D15" s="1"/>
@@ -656,7 +656,7 @@
       <c r="B16" s="1">
         <v>12</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <v>1</v>
       </c>
       <c r="D16" s="1"/>
@@ -668,7 +668,7 @@
       <c r="B17" s="1">
         <v>18</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <v>1</v>
       </c>
       <c r="D17" s="1"/>
